--- a/C2data.xlsx
+++ b/C2data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>Goal</t>
   </si>
@@ -764,36 +764,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -844,6 +814,36 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -903,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304544000"/>
-        <c:axId val="304562176"/>
+        <c:axId val="137065216"/>
+        <c:axId val="137067520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304544000"/>
+        <c:axId val="137065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304562176"/>
+        <c:crossAx val="137067520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304562176"/>
+        <c:axId val="137067520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304544000"/>
+        <c:crossAx val="137065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215428480"/>
-        <c:axId val="215434368"/>
+        <c:axId val="131445504"/>
+        <c:axId val="131447040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215428480"/>
+        <c:axId val="131445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215434368"/>
+        <c:crossAx val="131447040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1742,7 +1742,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215434368"/>
+        <c:axId val="131447040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1811,7 +1811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215428480"/>
+        <c:crossAx val="131445504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2521,11 +2521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215481344"/>
-        <c:axId val="215626496"/>
+        <c:axId val="131940736"/>
+        <c:axId val="131942272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215481344"/>
+        <c:axId val="131940736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215626496"/>
+        <c:crossAx val="131942272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2571,7 +2571,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215626496"/>
+        <c:axId val="131942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2640,7 +2640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215481344"/>
+        <c:crossAx val="131940736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3340,11 +3340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215854080"/>
-        <c:axId val="215868160"/>
+        <c:axId val="132174208"/>
+        <c:axId val="132175744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215854080"/>
+        <c:axId val="132174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215868160"/>
+        <c:crossAx val="132175744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3390,7 +3390,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215868160"/>
+        <c:axId val="132175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3459,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215854080"/>
+        <c:crossAx val="132174208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -4159,11 +4159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215906944"/>
-        <c:axId val="215921024"/>
+        <c:axId val="136134656"/>
+        <c:axId val="136136192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215906944"/>
+        <c:axId val="136134656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215921024"/>
+        <c:crossAx val="136136192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4209,7 +4209,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215921024"/>
+        <c:axId val="136136192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215906944"/>
+        <c:crossAx val="136134656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4975,11 +4975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290469760"/>
-        <c:axId val="290471296"/>
+        <c:axId val="136182784"/>
+        <c:axId val="136426240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="290469760"/>
+        <c:axId val="136182784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290471296"/>
+        <c:crossAx val="136426240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5025,7 +5025,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="290471296"/>
+        <c:axId val="136426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5093,7 +5093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290469760"/>
+        <c:crossAx val="136182784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5811,11 +5811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210134528"/>
-        <c:axId val="210136064"/>
+        <c:axId val="136718976"/>
+        <c:axId val="137056640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="210134528"/>
+        <c:axId val="136718976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210136064"/>
+        <c:crossAx val="137056640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5861,7 +5861,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="210136064"/>
+        <c:axId val="137056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,7 +5928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210134528"/>
+        <c:crossAx val="136718976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6149,11 +6149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304602112"/>
-        <c:axId val="304604288"/>
+        <c:axId val="139144192"/>
+        <c:axId val="139588736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304602112"/>
+        <c:axId val="139144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6188,7 +6188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304604288"/>
+        <c:crossAx val="139588736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6198,7 +6198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304604288"/>
+        <c:axId val="139588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6266,7 +6266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304602112"/>
+        <c:crossAx val="139144192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6891,11 +6891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304706688"/>
-        <c:axId val="304708224"/>
+        <c:axId val="140731904"/>
+        <c:axId val="140733440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304706688"/>
+        <c:axId val="140731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304708224"/>
+        <c:crossAx val="140733440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -6941,7 +6941,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304708224"/>
+        <c:axId val="140733440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7010,7 +7010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304706688"/>
+        <c:crossAx val="140731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7637,11 +7637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304741760"/>
-        <c:axId val="304796800"/>
+        <c:axId val="197725184"/>
+        <c:axId val="197928064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304741760"/>
+        <c:axId val="197725184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,7 +7676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304796800"/>
+        <c:crossAx val="197928064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -7685,7 +7685,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304796800"/>
+        <c:axId val="197928064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7754,7 +7754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304741760"/>
+        <c:crossAx val="197725184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8120,11 +8120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304824704"/>
-        <c:axId val="304826240"/>
+        <c:axId val="213505920"/>
+        <c:axId val="264088576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304824704"/>
+        <c:axId val="213505920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,7 +8159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304826240"/>
+        <c:crossAx val="264088576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8170,7 +8170,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304826240"/>
+        <c:axId val="264088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8239,7 +8239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304824704"/>
+        <c:crossAx val="213505920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8909,11 +8909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304893952"/>
-        <c:axId val="304895488"/>
+        <c:axId val="285779072"/>
+        <c:axId val="285780992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304893952"/>
+        <c:axId val="285779072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8948,7 +8948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304895488"/>
+        <c:crossAx val="285780992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8959,7 +8959,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304895488"/>
+        <c:axId val="285780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9028,7 +9028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304893952"/>
+        <c:crossAx val="285779072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9728,11 +9728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215175552"/>
-        <c:axId val="215177088"/>
+        <c:axId val="304215936"/>
+        <c:axId val="304237184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215175552"/>
+        <c:axId val="304215936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,7 +9767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215177088"/>
+        <c:crossAx val="304237184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -9778,7 +9778,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215177088"/>
+        <c:axId val="304237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9847,7 +9847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215175552"/>
+        <c:crossAx val="304215936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10547,11 +10547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215252992"/>
-        <c:axId val="215254528"/>
+        <c:axId val="131191936"/>
+        <c:axId val="131193472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215252992"/>
+        <c:axId val="131191936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10586,7 +10586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215254528"/>
+        <c:crossAx val="131193472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -10597,7 +10597,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215254528"/>
+        <c:axId val="131193472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10666,7 +10666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215252992"/>
+        <c:crossAx val="131191936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -11366,11 +11366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215297408"/>
-        <c:axId val="215299200"/>
+        <c:axId val="131359488"/>
+        <c:axId val="131361024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215297408"/>
+        <c:axId val="131359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11405,7 +11405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215299200"/>
+        <c:crossAx val="131361024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -11416,7 +11416,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215299200"/>
+        <c:axId val="131361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11485,7 +11485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215297408"/>
+        <c:crossAx val="131359488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -18262,10 +18262,10 @@
   <dimension ref="A1:BC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AT35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39:BC40"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -18297,23 +18297,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="25.2" customHeight="1">
-      <c r="B1" s="44" t="str">
+      <c r="B1" s="63" t="str">
         <f>T(Measures!$A21)</f>
         <v>C2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
@@ -18344,186 +18344,186 @@
     </row>
     <row r="2" spans="1:55" ht="25.2" customHeight="1">
       <c r="B2" s="41"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="50" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="50" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="45" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="45" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45" t="s">
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="45" t="s">
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="45" t="s">
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="45" t="s">
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
     </row>
-    <row r="3" spans="1:55" s="66" customFormat="1" ht="180" customHeight="1">
+    <row r="3" spans="1:55" s="56" customFormat="1" ht="180" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="46" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="46" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="48" t="s">
         <v>89</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="48" t="s">
         <v>89</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="48" t="s">
         <v>89</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="48" t="s">
         <v>89</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" s="58" t="s">
+      <c r="Z3" s="48" t="s">
         <v>89</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="58" t="s">
+      <c r="AC3" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AD3" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AE3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="61" t="s">
+      <c r="AF3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="60" t="s">
+      <c r="AG3" s="50" t="s">
         <v>37</v>
       </c>
       <c r="AH3" s="10" t="s">
@@ -18532,68 +18532,68 @@
       <c r="AI3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="62" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AK3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="61" t="s">
+      <c r="AL3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="AM3" s="60" t="s">
+      <c r="AM3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" s="61" t="s">
+      <c r="AN3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="61" t="s">
+      <c r="AO3" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="62" t="s">
+      <c r="AP3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="63" t="s">
+      <c r="AQ3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="64" t="s">
+      <c r="AR3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="64" t="s">
+      <c r="AS3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="64" t="s">
+      <c r="AT3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AU3" s="64" t="s">
+      <c r="AU3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AV3" s="64" t="s">
+      <c r="AV3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AW3" s="64" t="s">
+      <c r="AW3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AX3" s="64" t="s">
+      <c r="AX3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AY3" s="64" t="s">
+      <c r="AY3" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AZ3" s="65" t="s">
+      <c r="AZ3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="BA3" s="65" t="s">
+      <c r="BA3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="BB3" s="65" t="s">
+      <c r="BB3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="BC3" s="65" t="s">
+      <c r="BC3" s="55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="68" customFormat="1" ht="19.95" customHeight="1">
+    <row r="4" spans="1:55" s="58" customFormat="1" ht="19.95" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
@@ -18603,22 +18603,22 @@
       <c r="C4" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="46" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -18630,76 +18630,76 @@
       <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="48" t="s">
         <v>106</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="48" t="s">
         <v>85</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="58" t="s">
+      <c r="S4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="48" t="s">
         <v>52</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="48" t="s">
         <v>54</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="58" t="s">
+      <c r="Y4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="Z4" s="48" t="s">
         <v>56</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AB4" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="48" t="s">
         <v>108</v>
       </c>
       <c r="AD4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AE4" s="58" t="s">
+      <c r="AE4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="67" t="s">
+      <c r="AF4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="60" t="s">
+      <c r="AG4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AH4" s="60" t="s">
+      <c r="AH4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="61" t="s">
+      <c r="AI4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="62" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>28</v>
       </c>
       <c r="AK4" s="10" t="s">
@@ -18708,16 +18708,16 @@
       <c r="AL4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AM4" s="60" t="s">
+      <c r="AM4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AN4" s="61" t="s">
+      <c r="AN4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AO4" s="61" t="s">
+      <c r="AO4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AP4" s="62" t="s">
+      <c r="AP4" s="52" t="s">
         <v>30</v>
       </c>
       <c r="AQ4" s="10" t="str">
@@ -18777,10 +18777,10 @@
       <c r="A5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="59">
         <v>42401</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="60">
         <v>42370</v>
       </c>
       <c r="D5" s="20">
@@ -18967,10 +18967,10 @@
       <c r="A6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="59">
         <v>42430</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="60">
         <f>B5</f>
         <v>42401</v>
       </c>
@@ -19158,10 +19158,10 @@
       <c r="A7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="59">
         <v>42461</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="60">
         <f>B6</f>
         <v>42430</v>
       </c>
@@ -19329,10 +19329,10 @@
       <c r="A8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="59">
         <v>42491</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="60">
         <f t="shared" ref="C8:C40" si="15">B7</f>
         <v>42461</v>
       </c>
@@ -19490,10 +19490,10 @@
       <c r="A9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="59">
         <v>42522</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="60">
         <f t="shared" si="15"/>
         <v>42491</v>
       </c>
@@ -19515,14 +19515,14 @@
       </c>
       <c r="J9" s="19">
         <f ca="1">0.1*RANDBETWEEN(4,8)*H9</f>
-        <v>44.800000000000004</v>
+        <v>32</v>
       </c>
       <c r="K9" s="25">
         <v>64</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -19644,10 +19644,10 @@
       <c r="A10" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="59">
         <v>42552</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="60">
         <f t="shared" si="15"/>
         <v>42522</v>
       </c>
@@ -19669,14 +19669,14 @@
       </c>
       <c r="J10" s="19">
         <f t="shared" ref="J10:J16" ca="1" si="16">0.1*RANDBETWEEN(4,8)*K10</f>
-        <v>15.600000000000001</v>
+        <v>27.300000000000004</v>
       </c>
       <c r="K10" s="25">
         <v>39</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -19798,10 +19798,10 @@
       <c r="A11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="59">
         <v>42583</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="60">
         <f t="shared" si="15"/>
         <v>42552</v>
       </c>
@@ -19823,14 +19823,14 @@
       </c>
       <c r="J11" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>30.800000000000004</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K11" s="25">
         <v>44</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -19952,10 +19952,10 @@
       <c r="A12" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="59">
         <v>42614</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="60">
         <f t="shared" si="15"/>
         <v>42583</v>
       </c>
@@ -19977,14 +19977,14 @@
       </c>
       <c r="J12" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="K12" s="25">
         <v>54</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
@@ -20106,10 +20106,10 @@
       <c r="A13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="59">
         <v>42644</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="60">
         <f t="shared" si="15"/>
         <v>42614</v>
       </c>
@@ -20131,14 +20131,14 @@
       </c>
       <c r="J13" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>25.6</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="K13" s="25">
         <v>32</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -20260,10 +20260,10 @@
       <c r="A14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="59">
         <v>42675</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="60">
         <f t="shared" si="15"/>
         <v>42644</v>
       </c>
@@ -20414,10 +20414,10 @@
       <c r="A15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="59">
         <v>42705</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="60">
         <f t="shared" si="15"/>
         <v>42675</v>
       </c>
@@ -20439,14 +20439,14 @@
       </c>
       <c r="J15" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>39.200000000000003</v>
+        <v>29.400000000000006</v>
       </c>
       <c r="K15" s="25">
         <v>49</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -20568,10 +20568,10 @@
       <c r="A16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="59">
         <v>42736</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="60">
         <f t="shared" si="15"/>
         <v>42705</v>
       </c>
@@ -20593,14 +20593,14 @@
       </c>
       <c r="J16" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>20.8</v>
+        <v>26</v>
       </c>
       <c r="K16" s="25">
         <v>52</v>
       </c>
       <c r="L16" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -20722,10 +20722,10 @@
       <c r="A17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="59">
         <v>42767</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="60">
         <f t="shared" si="15"/>
         <v>42736</v>
       </c>
@@ -20867,10 +20867,10 @@
       <c r="A18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="59">
         <v>42795</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="60">
         <f t="shared" si="15"/>
         <v>42767</v>
       </c>
@@ -21012,10 +21012,10 @@
       <c r="A19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="59">
         <v>42826</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="60">
         <f t="shared" si="15"/>
         <v>42795</v>
       </c>
@@ -21157,10 +21157,10 @@
       <c r="A20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="59">
         <v>42856</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="60">
         <f t="shared" si="15"/>
         <v>42826</v>
       </c>
@@ -21302,10 +21302,10 @@
       <c r="A21" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="59">
         <v>42887</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="60">
         <f t="shared" si="15"/>
         <v>42856</v>
       </c>
@@ -21447,10 +21447,10 @@
       <c r="A22" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="59">
         <v>42917</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="60">
         <f t="shared" si="15"/>
         <v>42887</v>
       </c>
@@ -21592,10 +21592,10 @@
       <c r="A23" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="59">
         <v>42948</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="60">
         <f t="shared" si="15"/>
         <v>42917</v>
       </c>
@@ -21737,10 +21737,10 @@
       <c r="A24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="59">
         <v>42979</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="60">
         <f t="shared" si="15"/>
         <v>42948</v>
       </c>
@@ -21882,10 +21882,10 @@
       <c r="A25" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="59">
         <v>43009</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="60">
         <f t="shared" si="15"/>
         <v>42979</v>
       </c>
@@ -22027,10 +22027,10 @@
       <c r="A26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="59">
         <v>43040</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="60">
         <f t="shared" si="15"/>
         <v>43009</v>
       </c>
@@ -22172,10 +22172,10 @@
       <c r="A27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="59">
         <v>43070</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="60">
         <f t="shared" si="15"/>
         <v>43040</v>
       </c>
@@ -22317,10 +22317,10 @@
       <c r="A28" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="59">
         <v>43101</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="60">
         <f t="shared" si="15"/>
         <v>43070</v>
       </c>
@@ -22462,10 +22462,10 @@
       <c r="A29" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="59">
         <v>43132</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="60">
         <f t="shared" si="15"/>
         <v>43101</v>
       </c>
@@ -22607,10 +22607,10 @@
       <c r="A30" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="59">
         <v>43160</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="60">
         <f t="shared" si="15"/>
         <v>43132</v>
       </c>
@@ -22752,10 +22752,10 @@
       <c r="A31" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="59">
         <v>43191</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="60">
         <f t="shared" si="15"/>
         <v>43160</v>
       </c>
@@ -22897,10 +22897,10 @@
       <c r="A32" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="59">
         <v>43221</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="60">
         <f t="shared" si="15"/>
         <v>43191</v>
       </c>
@@ -23042,10 +23042,10 @@
       <c r="A33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33" s="59">
         <v>43252</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="60">
         <f t="shared" si="15"/>
         <v>43221</v>
       </c>
@@ -23187,10 +23187,10 @@
       <c r="A34" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="69">
+      <c r="B34" s="59">
         <v>43282</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="60">
         <f t="shared" si="15"/>
         <v>43252</v>
       </c>
@@ -23332,10 +23332,10 @@
       <c r="A35" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35" s="59">
         <v>43313</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="60">
         <f t="shared" si="15"/>
         <v>43282</v>
       </c>
@@ -23477,10 +23477,10 @@
       <c r="A36" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36" s="59">
         <v>43344</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="60">
         <f t="shared" si="15"/>
         <v>43313</v>
       </c>
@@ -23622,10 +23622,10 @@
       <c r="A37" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37" s="59">
         <v>43374</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="60">
         <f t="shared" si="15"/>
         <v>43344</v>
       </c>
@@ -23767,10 +23767,10 @@
       <c r="A38" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="59">
         <v>43405</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="60">
         <f t="shared" si="15"/>
         <v>43374</v>
       </c>
@@ -23912,10 +23912,10 @@
       <c r="A39" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="69">
+      <c r="B39" s="59">
         <v>43435</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="60">
         <f t="shared" si="15"/>
         <v>43405</v>
       </c>
@@ -24054,10 +24054,13 @@
       </c>
     </row>
     <row r="40" spans="1:55">
-      <c r="B40" s="69">
+      <c r="A40" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="59">
         <v>43466</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="60">
         <f t="shared" si="15"/>
         <v>43435</v>
       </c>
@@ -24197,11 +24200,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:BC2"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="AB2:AD2"/>
@@ -24212,6 +24210,11 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
@@ -24278,19 +24281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2" customHeight="1">
-      <c r="A1" s="44" t="str">
+      <c r="A1" s="63" t="str">
         <f>T(Measures!$A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="S2" s="3"/>
@@ -24392,19 +24395,19 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="44" t="str">
+      <c r="A1" s="63" t="str">
         <f>T(Measures!A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
@@ -24434,19 +24437,19 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="44" t="str">
+      <c r="A1" s="63" t="str">
         <f>T(Measures!A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>

--- a/C2data.xlsx
+++ b/C2data.xlsx
@@ -815,13 +815,13 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137065216"/>
-        <c:axId val="137067520"/>
+        <c:axId val="24233856"/>
+        <c:axId val="24235392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137065216"/>
+        <c:axId val="24233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137067520"/>
+        <c:crossAx val="24235392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137067520"/>
+        <c:axId val="24235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137065216"/>
+        <c:crossAx val="24233856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131445504"/>
-        <c:axId val="131447040"/>
+        <c:axId val="24488576"/>
+        <c:axId val="24506752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131445504"/>
+        <c:axId val="24488576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131447040"/>
+        <c:crossAx val="24506752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1742,7 +1742,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131447040"/>
+        <c:axId val="24506752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1811,7 +1811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131445504"/>
+        <c:crossAx val="24488576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2521,11 +2521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131940736"/>
-        <c:axId val="131942272"/>
+        <c:axId val="142846208"/>
+        <c:axId val="142860288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131940736"/>
+        <c:axId val="142846208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131942272"/>
+        <c:crossAx val="142860288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2571,7 +2571,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131942272"/>
+        <c:axId val="142860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2640,7 +2640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131940736"/>
+        <c:crossAx val="142846208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3340,11 +3340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132174208"/>
-        <c:axId val="132175744"/>
+        <c:axId val="143186176"/>
+        <c:axId val="143200256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="132174208"/>
+        <c:axId val="143186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132175744"/>
+        <c:crossAx val="143200256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3390,7 +3390,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132175744"/>
+        <c:axId val="143200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3459,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132174208"/>
+        <c:crossAx val="143186176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -4159,11 +4159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136134656"/>
-        <c:axId val="136136192"/>
+        <c:axId val="143251328"/>
+        <c:axId val="143252864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="136134656"/>
+        <c:axId val="143251328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136136192"/>
+        <c:crossAx val="143252864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4209,7 +4209,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136136192"/>
+        <c:axId val="143252864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136134656"/>
+        <c:crossAx val="143251328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4975,11 +4975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136182784"/>
-        <c:axId val="136426240"/>
+        <c:axId val="143328384"/>
+        <c:axId val="143329920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="136182784"/>
+        <c:axId val="143328384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136426240"/>
+        <c:crossAx val="143329920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5025,7 +5025,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136426240"/>
+        <c:axId val="143329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5093,7 +5093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136182784"/>
+        <c:crossAx val="143328384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5811,11 +5811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136718976"/>
-        <c:axId val="137056640"/>
+        <c:axId val="143397632"/>
+        <c:axId val="143399168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="136718976"/>
+        <c:axId val="143397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137056640"/>
+        <c:crossAx val="143399168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5861,7 +5861,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="137056640"/>
+        <c:axId val="143399168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,7 +5928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136718976"/>
+        <c:crossAx val="143397632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6149,11 +6149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139144192"/>
-        <c:axId val="139588736"/>
+        <c:axId val="24699264"/>
+        <c:axId val="24701184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139144192"/>
+        <c:axId val="24699264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6188,7 +6188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139588736"/>
+        <c:crossAx val="24701184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6198,7 +6198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139588736"/>
+        <c:axId val="24701184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6266,7 +6266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139144192"/>
+        <c:crossAx val="24699264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6891,11 +6891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140731904"/>
-        <c:axId val="140733440"/>
+        <c:axId val="26236800"/>
+        <c:axId val="26238336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="140731904"/>
+        <c:axId val="26236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140733440"/>
+        <c:crossAx val="26238336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -6941,7 +6941,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="140733440"/>
+        <c:axId val="26238336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7010,7 +7010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140731904"/>
+        <c:crossAx val="26236800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7637,11 +7637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197725184"/>
-        <c:axId val="197928064"/>
+        <c:axId val="141503104"/>
+        <c:axId val="141504896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197725184"/>
+        <c:axId val="141503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,7 +7676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197928064"/>
+        <c:crossAx val="141504896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -7685,7 +7685,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197928064"/>
+        <c:axId val="141504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7754,7 +7754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197725184"/>
+        <c:crossAx val="141503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8120,11 +8120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213505920"/>
-        <c:axId val="264088576"/>
+        <c:axId val="141540736"/>
+        <c:axId val="141550720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="213505920"/>
+        <c:axId val="141540736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,7 +8159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264088576"/>
+        <c:crossAx val="141550720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8170,7 +8170,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264088576"/>
+        <c:axId val="141550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8239,7 +8239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213505920"/>
+        <c:crossAx val="141540736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8909,11 +8909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285779072"/>
-        <c:axId val="285780992"/>
+        <c:axId val="141606272"/>
+        <c:axId val="141952128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="285779072"/>
+        <c:axId val="141606272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8948,7 +8948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285780992"/>
+        <c:crossAx val="141952128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8959,7 +8959,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="285780992"/>
+        <c:axId val="141952128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9028,7 +9028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285779072"/>
+        <c:crossAx val="141606272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9728,11 +9728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304215936"/>
-        <c:axId val="304237184"/>
+        <c:axId val="24272256"/>
+        <c:axId val="24286336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304215936"/>
+        <c:axId val="24272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,7 +9767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304237184"/>
+        <c:crossAx val="24286336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -9778,7 +9778,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304237184"/>
+        <c:axId val="24286336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9847,7 +9847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304215936"/>
+        <c:crossAx val="24272256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10547,11 +10547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131191936"/>
-        <c:axId val="131193472"/>
+        <c:axId val="246246400"/>
+        <c:axId val="246280960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131191936"/>
+        <c:axId val="246246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10586,7 +10586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131193472"/>
+        <c:crossAx val="246280960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -10597,7 +10597,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131193472"/>
+        <c:axId val="246280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10666,7 +10666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131191936"/>
+        <c:crossAx val="246246400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -11366,11 +11366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131359488"/>
-        <c:axId val="131361024"/>
+        <c:axId val="142006912"/>
+        <c:axId val="142012800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131359488"/>
+        <c:axId val="142006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11405,7 +11405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131361024"/>
+        <c:crossAx val="142012800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -11416,7 +11416,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131361024"/>
+        <c:axId val="142012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11485,7 +11485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131359488"/>
+        <c:crossAx val="142006912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -18297,23 +18297,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="25.2" customHeight="1">
-      <c r="B1" s="63" t="str">
+      <c r="B1" s="61" t="str">
         <f>T(Measures!$A21)</f>
         <v>C2</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
@@ -18344,22 +18344,22 @@
     </row>
     <row r="2" spans="1:55" ht="25.2" customHeight="1">
       <c r="B2" s="41"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="67" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="67" t="s">
         <v>32</v>
       </c>
@@ -18370,61 +18370,61 @@
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="61" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="s">
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
       <c r="AB2" s="64" t="s">
         <v>43</v>
       </c>
       <c r="AC2" s="65"/>
       <c r="AD2" s="66"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AE2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="61" t="s">
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="61" t="s">
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="61" t="s">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="62" t="s">
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
     </row>
     <row r="3" spans="1:55" s="56" customFormat="1" ht="180" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -19515,14 +19515,14 @@
       </c>
       <c r="J9" s="19">
         <f ca="1">0.1*RANDBETWEEN(4,8)*H9</f>
-        <v>32</v>
+        <v>25.6</v>
       </c>
       <c r="K9" s="25">
         <v>64</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -19669,14 +19669,14 @@
       </c>
       <c r="J10" s="19">
         <f t="shared" ref="J10:J16" ca="1" si="16">0.1*RANDBETWEEN(4,8)*K10</f>
-        <v>27.300000000000004</v>
+        <v>19.5</v>
       </c>
       <c r="K10" s="25">
         <v>39</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -19823,14 +19823,14 @@
       </c>
       <c r="J11" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>35.200000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K11" s="25">
         <v>44</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -19977,14 +19977,14 @@
       </c>
       <c r="J12" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>32.400000000000006</v>
+        <v>27</v>
       </c>
       <c r="K12" s="25">
         <v>54</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>60.000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
@@ -20131,14 +20131,14 @@
       </c>
       <c r="J13" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>19.200000000000003</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="K13" s="25">
         <v>32</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>60.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -20285,14 +20285,14 @@
       </c>
       <c r="J14" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>35.700000000000003</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="K14" s="25">
         <v>51</v>
       </c>
       <c r="L14" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -20439,14 +20439,14 @@
       </c>
       <c r="J15" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>29.400000000000006</v>
+        <v>24.5</v>
       </c>
       <c r="K15" s="25">
         <v>49</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>60.000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -20593,14 +20593,14 @@
       </c>
       <c r="J16" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="K16" s="25">
         <v>52</v>
       </c>
       <c r="L16" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -24200,6 +24200,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:BC2"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="AB2:AD2"/>
@@ -24210,11 +24215,6 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
@@ -24281,19 +24281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2" customHeight="1">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="61" t="str">
         <f>T(Measures!$A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="S2" s="3"/>
@@ -24395,19 +24395,19 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="61" t="str">
         <f>T(Measures!A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
@@ -24437,19 +24437,19 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="61" t="str">
         <f>T(Measures!A21)</f>
         <v>C2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
